--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2798.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2798.xlsx
@@ -354,7 +354,7 @@
         <v>2.439959464534711</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.364288272060838</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2798.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2798.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169149211342431</v>
+        <v>0.9557737112045288</v>
       </c>
       <c r="B1">
-        <v>2.439959464534711</v>
+        <v>1.721540808677673</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.67745304107666</v>
       </c>
       <c r="D1">
-        <v>2.364288272060838</v>
+        <v>1.413659930229187</v>
       </c>
       <c r="E1">
-        <v>1.231897146901226</v>
+        <v>1.143731832504272</v>
       </c>
     </row>
   </sheetData>
